--- a/matrix_multiplication/results.xlsx
+++ b/matrix_multiplication/results.xlsx
@@ -115,6 +115,1813 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured matrix multiplication time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Two-dim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9BBB59">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.106999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Single-dim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="1F497D">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.161000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Str-Single-Dim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1689999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.916599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Str-Quad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8437999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.2502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Str-Single-Dim-SIMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5399999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.943999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Str-Quad-SIMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$H$2:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.4344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420255960"/>
+        <c:axId val="420257136"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strassen-Wiki</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1907999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.067399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145.06100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420256352"/>
+        <c:axId val="420256744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420255960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix row size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420257136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420257136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>execution time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420255960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420256744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="420256352"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420256352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="420256744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,11 +2185,265 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -477,7 +2538,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A11" si="0">A3*2</f>
+        <f t="shared" ref="A4:A10" si="0">A3*2</f>
         <v>64</v>
       </c>
       <c r="B4" s="2">
@@ -665,5 +2726,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/matrix_multiplication/results.xlsx
+++ b/matrix_multiplication/results.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Matrix Size</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sequential Two-dim</t>
   </si>
@@ -38,19 +35,31 @@
     <t>Str-Quad</t>
   </si>
   <si>
-    <t>Str-Single-Dim</t>
-  </si>
-  <si>
     <t>Sequential Single-dim</t>
   </si>
   <si>
-    <t>Str-Single-Dim-SIMD</t>
+    <t>0..6032</t>
   </si>
   <si>
-    <t>Str-Quad-SIMD</t>
+    <t>Matrix size (bytes)</t>
   </si>
   <si>
-    <t>0..6032</t>
+    <t>Matrix row length</t>
+  </si>
+  <si>
+    <t>Str-Quad SIMD</t>
+  </si>
+  <si>
+    <t>Str-Single Dim</t>
+  </si>
+  <si>
+    <t>Str-Single Dim SIMD</t>
+  </si>
+  <si>
+    <t>Str Single-Dim SIMD  OPENMP</t>
+  </si>
+  <si>
+    <t>Str Quad SIMD OpenMP</t>
   </si>
 </sst>
 </file>
@@ -94,11 +103,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,7 +176,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Measured matrix multiplication time</a:t>
+              <a:t>Matrix multiplication exeuction time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -211,7 +228,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>using_intel_compiler!$B$1</c:f>
+              <c:f>using_intel_compiler!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -243,10 +260,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -273,16 +290,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$B$2:$B$10</c:f>
+              <c:f>using_intel_compiler!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -309,6 +338,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>24.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211.255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,7 +352,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>using_intel_compiler!$C$1</c:f>
+              <c:f>using_intel_compiler!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -352,10 +384,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -382,16 +414,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$C$2:$C$10</c:f>
+              <c:f>using_intel_compiler!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -418,6 +462,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>53.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450.07799999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,17 +476,17 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>using_intel_compiler!$E$1</c:f>
+              <c:f>using_intel_compiler!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Str-Single-Dim</c:v>
+                  <c:v>Str-Single Dim</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -458,10 +505,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -488,16 +535,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$E$2:$E$10</c:f>
+              <c:f>using_intel_compiler!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -524,6 +583,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28.916599999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>206.52600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,7 +597,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>using_intel_compiler!$F$1</c:f>
+              <c:f>using_intel_compiler!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -545,7 +607,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -564,10 +626,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -594,16 +656,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$F$2:$F$10</c:f>
+              <c:f>using_intel_compiler!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -630,6 +704,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27.2502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191.94300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,17 +718,17 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>using_intel_compiler!$G$1</c:f>
+              <c:f>using_intel_compiler!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Str-Single-Dim-SIMD</c:v>
+                  <c:v>Str-Single Dim SIMD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -670,10 +747,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -700,32 +777,44 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$G$2:$G$10</c:f>
+              <c:f>using_intel_compiler!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0.00">
                   <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>2.8E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>1.46E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>7.5399999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
@@ -736,6 +825,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26.943999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188.267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,17 +839,17 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>using_intel_compiler!$H$1</c:f>
+              <c:f>using_intel_compiler!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Str-Quad-SIMD</c:v>
+                  <c:v>Str-Quad SIMD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -778,10 +870,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -808,16 +900,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$H$2:$H$10</c:f>
+              <c:f>using_intel_compiler!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -844,6 +948,255 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28.4344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>203.221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Str Single-Dim SIMD  OPENMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.877000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115.688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>using_intel_compiler!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Str Quad SIMD OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>using_intel_compiler!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.39700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,8 +1211,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420255960"/>
-        <c:axId val="420257136"/>
+        <c:axId val="484557120"/>
+        <c:axId val="484658080"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -869,7 +1222,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>using_intel_compiler!$D$1</c:f>
+              <c:f>using_intel_compiler!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -901,10 +1254,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$A$2:$A$10</c:f>
+              <c:f>using_intel_compiler!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -931,16 +1284,28 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>using_intel_compiler!$D$2:$D$10</c:f>
+              <c:f>using_intel_compiler!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2.2000000000000001E-3</c:v>
                 </c:pt>
@@ -975,13 +1340,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420256352"/>
-        <c:axId val="420256744"/>
+        <c:axId val="503788304"/>
+        <c:axId val="503787912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420255960"/>
+        <c:axId val="484557120"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1032,7 +1399,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Matrix row size</a:t>
+                  <a:t>Matrix Row size (number of elements)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1100,12 +1467,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420257136"/>
+        <c:crossAx val="484658080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420257136"/>
+        <c:axId val="484658080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1525,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>execution time (seconds)</a:t>
+                  <a:t>Execution time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1226,12 +1593,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420255960"/>
+        <c:crossAx val="484557120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420256744"/>
+        <c:axId val="503787912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,13 +1608,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420256352"/>
+        <c:crossAx val="503788304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420256352"/>
+        <c:axId val="503788304"/>
         <c:scaling>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
@@ -1256,7 +1624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420256744"/>
+        <c:crossAx val="503787912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1893,20 +2261,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2439,289 +2807,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
+        <f>CONCATENATE(TEXT((B2*B2*32)/1024,0), " kbytes")</f>
+        <v>8 kbytes</v>
+      </c>
+      <c r="B2" s="1">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="1">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f>A2*2</f>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>CONCATENATE(TEXT((B3*B3*32)/1024,0), " kbytes")</f>
+        <v>32 kbytes</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2*2</f>
         <v>32</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A10" si="0">A3*2</f>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>CONCATENATE(TEXT((B4*B4*32)/1024,0), " kbytes")</f>
+        <v>128 kbytes</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B14" si="0">B3*2</f>
         <v>64</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="1">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="1">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="1">
         <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4.0000000000000002E-4</v>
       </c>
       <c r="H4" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
+      <c r="I4" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>CONCATENATE(TEXT((B5*B5*32)/1024,0), " kbytes")</f>
+        <v>512 kbytes</v>
+      </c>
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="1">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="1">
         <v>0.46079999999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>2.8E-3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="1">
         <v>2E-3</v>
       </c>
+      <c r="J5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>CONCATENATE(TEXT((B6*B6*32)/(1024*1024),0), " mbytes")</f>
+        <v>2 mbytes</v>
+      </c>
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="1">
         <v>0.05</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="1">
         <v>3.1907999999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="1">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1.46E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="1">
         <v>0.114</v>
       </c>
+      <c r="J6" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>CONCATENATE(TEXT((B7*B7*32)/(1024*1024),0), " mbytes")</f>
+        <v>8 mbytes</v>
+      </c>
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="1">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="1">
         <v>22.067399999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>7.5399999999999995E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="1">
         <v>8.0600000000000005E-2</v>
       </c>
+      <c r="J7" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f>CONCATENATE(TEXT((B8*B8*32)/(1024*1024),0), " mbytes")</f>
+        <v>32 mbytes</v>
+      </c>
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="1">
         <v>0.36899999999999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="1">
         <v>0.84799999999999998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="1">
         <v>145.06100000000001</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
         <v>0.55159999999999998</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="1">
         <v>0.54</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="1">
         <v>0.57599999999999996</v>
       </c>
+      <c r="J8" s="1">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.47099999999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f>CONCATENATE(TEXT((B9*B9*32)/(1024*1024),0), " mbytes")</f>
+        <v>128 mbytes</v>
+      </c>
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="1">
         <v>3.008</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="1">
         <v>6.6749999999999998</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>4.1689999999999996</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="1">
         <v>3.8437999999999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="1">
         <v>3.8719999999999999</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="1">
         <v>4.0490000000000004</v>
       </c>
+      <c r="J9" s="1">
+        <v>2.456</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.1389999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f>CONCATENATE(TEXT((B10*B10*32)/(1024*1024),0), " mbytes")</f>
+        <v>512 mbytes</v>
+      </c>
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="1">
         <v>24.106999999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="1">
         <v>53.161000000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="1">
         <v>28.916599999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="1">
         <v>27.2502</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="1">
         <v>26.943999999999999</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="1">
         <v>28.4344</v>
       </c>
+      <c r="J10" s="1">
+        <v>15.877000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>14.234999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>CONCATENATE(TEXT((B11*B11*32)/(1024*1024),0), " mbytes")</f>
+        <v>2048 mbytes</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C11" s="1">
+        <v>211.255</v>
+      </c>
+      <c r="D11" s="1">
+        <v>450.07799999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>206.52600000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>191.94300000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>188.267</v>
+      </c>
+      <c r="I11" s="1">
+        <v>203.221</v>
+      </c>
+      <c r="J11" s="1">
+        <v>115.688</v>
+      </c>
+      <c r="K11" s="1">
+        <v>110.39700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f>CONCATENATE(TEXT((B12*B12*32)/(1024*1024),0), " mbytes")</f>
+        <v>8192 mbytes</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f>CONCATENATE(TEXT((B13*B13*32)/(1024*1024),0), " mbytes")</f>
+        <v>32768 mbytes</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>CONCATENATE(TEXT((B14*B14*32)/(1024*1024),0), " mbytes")</f>
+        <v>131072 mbytes</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/matrix_multiplication/results.xlsx
+++ b/matrix_multiplication/results.xlsx
@@ -1211,8 +1211,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="484557120"/>
-        <c:axId val="484658080"/>
+        <c:axId val="432219584"/>
+        <c:axId val="432220368"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1340,14 +1340,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="503788304"/>
-        <c:axId val="503787912"/>
+        <c:axId val="484557120"/>
+        <c:axId val="432219192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="484557120"/>
+        <c:axId val="432219584"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:max val="8192"/>
           <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1467,12 +1468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484658080"/>
+        <c:crossAx val="432220368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484658080"/>
+        <c:axId val="432220368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,12 +1594,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484557120"/>
+        <c:crossAx val="432219584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503787912"/>
+        <c:axId val="432219192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,12 +1609,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503788304"/>
+        <c:crossAx val="484557120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503788304"/>
+        <c:axId val="484557120"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -1624,7 +1625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503787912"/>
+        <c:crossAx val="432219192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2810,10 +2811,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,7 +3014,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
-        <f>CONCATENATE(TEXT((B6*B6*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" ref="A6:A14" si="1">CONCATENATE(TEXT((B6*B6*32)/(1024*1024),0), " mbytes")</f>
         <v>2 mbytes</v>
       </c>
       <c r="B6" s="1">
@@ -3050,7 +3051,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
-        <f>CONCATENATE(TEXT((B7*B7*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>8 mbytes</v>
       </c>
       <c r="B7" s="1">
@@ -3087,7 +3088,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <f>CONCATENATE(TEXT((B8*B8*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>32 mbytes</v>
       </c>
       <c r="B8" s="1">
@@ -3124,7 +3125,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <f>CONCATENATE(TEXT((B9*B9*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>128 mbytes</v>
       </c>
       <c r="B9" s="1">
@@ -3159,7 +3160,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <f>CONCATENATE(TEXT((B10*B10*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>512 mbytes</v>
       </c>
       <c r="B10" s="1">
@@ -3193,7 +3194,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
-        <f>CONCATENATE(TEXT((B11*B11*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>2048 mbytes</v>
       </c>
       <c r="B11" s="1">
@@ -3227,7 +3228,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <f>CONCATENATE(TEXT((B12*B12*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>8192 mbytes</v>
       </c>
       <c r="B12" s="1">
@@ -3237,7 +3238,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <f>CONCATENATE(TEXT((B13*B13*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>32768 mbytes</v>
       </c>
       <c r="B13" s="1">
@@ -3247,7 +3248,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f>CONCATENATE(TEXT((B14*B14*32)/(1024*1024),0), " mbytes")</f>
+        <f t="shared" si="1"/>
         <v>131072 mbytes</v>
       </c>
       <c r="B14" s="1">
